--- a/data/trans_orig/P6710-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6710-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3A94F09-0C82-4FB6-B214-7BC6EE6DCCE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F2B2BE1-B89A-4E05-B949-7059B1769E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AD0BE2B5-58E9-4F69-82FA-FC9A94B57F4D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{78D57532-2D91-45BA-B8CC-28890ADDBCE5}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="555">
   <si>
     <t>Población según si puede decidir cuándo hace un descanso en 2012 (Tasa respuesta: 33,7%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>24,52%</t>
   </si>
   <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
   </si>
   <si>
     <t>17,18%</t>
   </si>
   <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
   </si>
   <si>
     <t>20,74%</t>
   </si>
   <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
@@ -105,10 +105,10 @@
     <t>10,62%</t>
   </si>
   <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
   </si>
   <si>
     <t>4,41%</t>
@@ -117,1573 +117,1591 @@
     <t>1,1%</t>
   </si>
   <si>
-    <t>9,94%</t>
+    <t>10,09%</t>
   </si>
   <si>
     <t>7,42%</t>
   </si>
   <si>
-    <t>3,82%</t>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si puede decidir cuándo hace un descanso en 2015 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
   </si>
   <si>
     <t>12,08%</t>
   </si>
   <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
   </si>
   <si>
     <t>14,31%</t>
   </si>
   <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
   </si>
   <si>
     <t>22,12%</t>
   </si>
   <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
   </si>
   <si>
     <t>12,91%</t>
   </si>
   <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
+    <t>17,34%</t>
   </si>
   <si>
     <t>13,72%</t>
   </si>
   <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si puede decidir cuándo hace un descanso en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
   </si>
   <si>
     <t>21,25%</t>
   </si>
   <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>63,66%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
+    <t>18,52%</t>
   </si>
   <si>
     <t>24,96%</t>
   </si>
   <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
   </si>
   <si>
     <t>24,03%</t>
   </si>
   <si>
-    <t>25,87%</t>
+    <t>22,32%</t>
   </si>
 </sst>
 </file>
@@ -2095,7 +2113,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E1000A-A129-4C93-94B0-DC9051B45C35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F997E2-211D-4B22-BF26-6900C5DD7CC3}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2375,10 +2393,10 @@
         <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
@@ -2387,13 +2405,13 @@
         <v>20140</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>33</v>
@@ -2402,19 +2420,19 @@
         <v>34181</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>21</v>
@@ -2423,13 +2441,13 @@
         <v>21280</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>34</v>
@@ -2438,13 +2456,13 @@
         <v>35084</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>55</v>
@@ -2453,13 +2471,13 @@
         <v>56364</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2474,13 +2492,13 @@
         <v>82851</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>86</v>
@@ -2489,13 +2507,13 @@
         <v>87801</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>164</v>
@@ -2504,18 +2522,18 @@
         <v>170652</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2527,13 +2545,13 @@
         <v>40868</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>37</v>
@@ -2542,13 +2560,13 @@
         <v>40928</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>76</v>
@@ -2557,13 +2575,13 @@
         <v>81796</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2578,13 +2596,13 @@
         <v>22502</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>26</v>
@@ -2593,13 +2611,13 @@
         <v>28529</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>47</v>
@@ -2608,13 +2626,13 @@
         <v>51031</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2629,13 +2647,13 @@
         <v>97780</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>48</v>
@@ -2644,13 +2662,13 @@
         <v>51529</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>143</v>
@@ -2659,13 +2677,13 @@
         <v>149308</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2680,13 +2698,13 @@
         <v>76249</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
@@ -2695,13 +2713,13 @@
         <v>52965</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
         <v>127</v>
@@ -2710,19 +2728,19 @@
         <v>129213</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>136</v>
@@ -2731,13 +2749,13 @@
         <v>142470</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>91</v>
@@ -2746,13 +2764,13 @@
         <v>98101</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>227</v>
@@ -2761,13 +2779,13 @@
         <v>240571</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2782,13 +2800,13 @@
         <v>379868</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>253</v>
@@ -2797,13 +2815,13 @@
         <v>272051</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>620</v>
@@ -2812,18 +2830,18 @@
         <v>651919</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2835,13 +2853,13 @@
         <v>32600</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -2850,13 +2868,13 @@
         <v>30666</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>61</v>
@@ -2865,13 +2883,13 @@
         <v>63266</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2886,13 +2904,13 @@
         <v>46404</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>32</v>
@@ -2901,13 +2919,13 @@
         <v>34352</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>73</v>
@@ -2916,13 +2934,13 @@
         <v>80757</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2937,13 +2955,13 @@
         <v>74982</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>57</v>
@@ -2952,13 +2970,13 @@
         <v>58395</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>131</v>
@@ -2967,13 +2985,13 @@
         <v>133378</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2988,13 +3006,13 @@
         <v>106493</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>59</v>
@@ -3003,10 +3021,10 @@
         <v>61573</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>137</v>
+        <v>41</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>138</v>
@@ -3030,7 +3048,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>153</v>
@@ -3090,13 +3108,13 @@
         <v>421040</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>270</v>
@@ -3105,13 +3123,13 @@
         <v>282835</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>676</v>
@@ -3120,13 +3138,13 @@
         <v>703875</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,13 +3191,13 @@
         <v>65232</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3194,13 +3212,13 @@
         <v>29809</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>19</v>
@@ -3209,13 +3227,13 @@
         <v>23183</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>47</v>
@@ -3224,13 +3242,13 @@
         <v>52991</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3245,13 +3263,13 @@
         <v>71102</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>33</v>
@@ -3260,13 +3278,13 @@
         <v>40224</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>93</v>
@@ -3275,13 +3293,13 @@
         <v>111325</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,10 +3314,10 @@
         <v>74075</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>179</v>
@@ -3338,7 +3356,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>140</v>
@@ -3398,13 +3416,13 @@
         <v>366532</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>193</v>
@@ -3413,13 +3431,13 @@
         <v>225340</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>518</v>
@@ -3428,13 +3446,13 @@
         <v>591872</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3610,7 +3628,7 @@
         <v>224</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>42</v>
+        <v>225</v>
       </c>
       <c r="H31" s="7">
         <v>12</v>
@@ -3619,13 +3637,13 @@
         <v>13586</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M31" s="7">
         <v>40</v>
@@ -3634,10 +3652,10 @@
         <v>43827</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>229</v>
+        <v>64</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>230</v>
@@ -3646,7 +3664,7 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7">
         <v>76</v>
@@ -3706,13 +3724,13 @@
         <v>156384</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
         <v>63</v>
@@ -3721,13 +3739,13 @@
         <v>69691</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>209</v>
@@ -3736,13 +3754,13 @@
         <v>226075</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3795,7 +3813,7 @@
         <v>241</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>243</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3846,7 +3864,7 @@
         <v>241</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>243</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,13 +3894,13 @@
         <v>891</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>209</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -3891,13 +3909,13 @@
         <v>891</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>209</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,13 +3930,13 @@
         <v>1000</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>209</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -3942,19 +3960,19 @@
         <v>1000</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>209</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C38" s="7">
         <v>2</v>
@@ -3963,13 +3981,13 @@
         <v>2016</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>209</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -3978,13 +3996,13 @@
         <v>1947</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>209</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M38" s="7">
         <v>4</v>
@@ -3993,13 +4011,13 @@
         <v>3964</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="P38" s="7" t="s">
-        <v>254</v>
-      </c>
       <c r="Q38" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,13 +4032,13 @@
         <v>3016</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H39" s="7">
         <v>3</v>
@@ -4029,13 +4047,13 @@
         <v>2838</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M39" s="7">
         <v>6</v>
@@ -4044,13 +4062,13 @@
         <v>5854</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4067,13 +4085,13 @@
         <v>138589</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="F40" s="7" t="s">
-        <v>256</v>
-      </c>
       <c r="G40" s="7" t="s">
-        <v>257</v>
+        <v>167</v>
       </c>
       <c r="H40" s="7">
         <v>114</v>
@@ -4082,13 +4100,13 @@
         <v>122811</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M40" s="7">
         <v>243</v>
@@ -4097,13 +4115,13 @@
         <v>261400</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,13 +4136,13 @@
         <v>112006</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H41" s="7">
         <v>83</v>
@@ -4133,13 +4151,13 @@
         <v>91903</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M41" s="7">
         <v>185</v>
@@ -4148,13 +4166,13 @@
         <v>203909</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,13 +4187,13 @@
         <v>293588</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H42" s="7">
         <v>164</v>
@@ -4184,13 +4202,13 @@
         <v>177225</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="M42" s="7">
         <v>438</v>
@@ -4199,13 +4217,13 @@
         <v>470813</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P42" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4220,7 +4238,7 @@
         <v>302099</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>126</v>
+        <v>279</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>280</v>
@@ -4262,7 +4280,7 @@
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C44" s="7">
         <v>528</v>
@@ -4322,13 +4340,13 @@
         <v>1409691</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H45" s="7">
         <v>868</v>
@@ -4337,13 +4355,13 @@
         <v>940556</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M45" s="7">
         <v>2193</v>
@@ -4352,13 +4370,13 @@
         <v>2350247</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4385,7 +4403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F589B5-B89C-43C7-9A74-B28D2C8EAC67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08842E54-5220-44C2-9641-C81BB81384B7}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4509,13 +4527,13 @@
         <v>13000</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -4524,13 +4542,13 @@
         <v>12816</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>177</v>
+        <v>31</v>
       </c>
       <c r="M4" s="7">
         <v>25</v>
@@ -4539,7 +4557,7 @@
         <v>25816</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>303</v>
+        <v>76</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>304</v>
@@ -4560,13 +4578,13 @@
         <v>15526</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>85</v>
+        <v>306</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -4575,13 +4593,13 @@
         <v>21843</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>88</v>
+        <v>245</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M5" s="7">
         <v>36</v>
@@ -4590,13 +4608,13 @@
         <v>37368</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4611,13 +4629,13 @@
         <v>24718</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H6" s="7">
         <v>23</v>
@@ -4626,13 +4644,13 @@
         <v>21866</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M6" s="7">
         <v>45</v>
@@ -4641,13 +4659,13 @@
         <v>46584</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4662,13 +4680,13 @@
         <v>16481</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>201</v>
+        <v>323</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
@@ -4677,13 +4695,13 @@
         <v>19819</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M7" s="7">
         <v>36</v>
@@ -4692,19 +4710,19 @@
         <v>36300</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>9</v>
@@ -4713,13 +4731,13 @@
         <v>9384</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>331</v>
+        <v>47</v>
       </c>
       <c r="H8" s="7">
         <v>16</v>
@@ -4728,13 +4746,13 @@
         <v>15512</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M8" s="7">
         <v>25</v>
@@ -4743,13 +4761,13 @@
         <v>24896</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4764,13 +4782,13 @@
         <v>79109</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>93</v>
@@ -4779,13 +4797,13 @@
         <v>91855</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>167</v>
@@ -4794,18 +4812,18 @@
         <v>170964</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4817,13 +4835,13 @@
         <v>47402</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H10" s="7">
         <v>44</v>
@@ -4832,13 +4850,13 @@
         <v>42406</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M10" s="7">
         <v>88</v>
@@ -4847,13 +4865,13 @@
         <v>89808</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4868,13 +4886,13 @@
         <v>70646</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>348</v>
+        <v>164</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>49</v>
+        <v>349</v>
       </c>
       <c r="H11" s="7">
         <v>57</v>
@@ -4883,10 +4901,10 @@
         <v>54384</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>351</v>
@@ -4934,13 +4952,13 @@
         <v>71433</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="M12" s="7">
         <v>153</v>
@@ -4949,13 +4967,13 @@
         <v>151742</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4970,7 +4988,7 @@
         <v>69298</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>364</v>
@@ -4988,10 +5006,10 @@
         <v>366</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="M13" s="7">
         <v>128</v>
@@ -5000,19 +5018,19 @@
         <v>126285</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>73</v>
@@ -5021,7 +5039,7 @@
         <v>76530</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>177</v>
+        <v>371</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>372</v>
@@ -5051,13 +5069,13 @@
         <v>125037</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5072,13 +5090,13 @@
         <v>344185</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>283</v>
@@ -5087,13 +5105,13 @@
         <v>273716</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>612</v>
@@ -5102,18 +5120,18 @@
         <v>617902</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5125,7 +5143,7 @@
         <v>54357</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>380</v>
@@ -5143,10 +5161,10 @@
         <v>382</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="M16" s="7">
         <v>102</v>
@@ -5155,13 +5173,13 @@
         <v>102131</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5176,13 +5194,13 @@
         <v>65122</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="H17" s="7">
         <v>58</v>
@@ -5191,13 +5209,13 @@
         <v>56716</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="M17" s="7">
         <v>119</v>
@@ -5206,13 +5224,13 @@
         <v>121838</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5227,13 +5245,13 @@
         <v>125572</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="H18" s="7">
         <v>81</v>
@@ -5242,13 +5260,13 @@
         <v>79202</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="M18" s="7">
         <v>202</v>
@@ -5257,13 +5275,13 @@
         <v>204774</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5278,13 +5296,13 @@
         <v>99727</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="H19" s="7">
         <v>47</v>
@@ -5293,13 +5311,13 @@
         <v>47403</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>409</v>
+        <v>93</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>411</v>
+        <v>223</v>
       </c>
       <c r="M19" s="7">
         <v>141</v>
@@ -5308,19 +5326,19 @@
         <v>147130</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>109</v>
@@ -5329,13 +5347,13 @@
         <v>114810</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>222</v>
+        <v>410</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="H20" s="7">
         <v>83</v>
@@ -5344,13 +5362,13 @@
         <v>86319</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="M20" s="7">
         <v>192</v>
@@ -5359,13 +5377,13 @@
         <v>201129</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>185</v>
+        <v>417</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5380,13 +5398,13 @@
         <v>459588</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>319</v>
@@ -5395,13 +5413,13 @@
         <v>317414</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>756</v>
@@ -5410,13 +5428,13 @@
         <v>777002</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5433,13 +5451,13 @@
         <v>48973</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="H22" s="7">
         <v>35</v>
@@ -5448,13 +5466,13 @@
         <v>38432</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>424</v>
+        <v>386</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="M22" s="7">
         <v>76</v>
@@ -5463,13 +5481,13 @@
         <v>87405</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>62</v>
+        <v>424</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>180</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,13 +5502,13 @@
         <v>49609</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="H23" s="7">
         <v>34</v>
@@ -5499,13 +5517,13 @@
         <v>36358</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>432</v>
+        <v>257</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>337</v>
+        <v>430</v>
       </c>
       <c r="M23" s="7">
         <v>80</v>
@@ -5514,13 +5532,13 @@
         <v>85967</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>324</v>
+        <v>431</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>433</v>
+        <v>388</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>137</v>
+        <v>432</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5535,13 +5553,13 @@
         <v>95249</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>334</v>
+        <v>433</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="H24" s="7">
         <v>59</v>
@@ -5550,10 +5568,10 @@
         <v>63340</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>437</v>
@@ -5592,7 +5610,7 @@
         <v>442</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>403</v>
+        <v>443</v>
       </c>
       <c r="H25" s="7">
         <v>43</v>
@@ -5601,13 +5619,13 @@
         <v>46543</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>361</v>
+        <v>446</v>
       </c>
       <c r="M25" s="7">
         <v>112</v>
@@ -5616,19 +5634,19 @@
         <v>125188</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>401</v>
+        <v>447</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>88</v>
@@ -5637,13 +5655,13 @@
         <v>95252</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>334</v>
+        <v>433</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="H26" s="7">
         <v>52</v>
@@ -5652,13 +5670,13 @@
         <v>58446</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="M26" s="7">
         <v>140</v>
@@ -5667,13 +5685,13 @@
         <v>153698</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5688,13 +5706,13 @@
         <v>367728</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>223</v>
@@ -5703,13 +5721,13 @@
         <v>243118</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>554</v>
@@ -5718,13 +5736,13 @@
         <v>610846</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5741,13 +5759,13 @@
         <v>17721</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="H28" s="7">
         <v>12</v>
@@ -5756,13 +5774,13 @@
         <v>14545</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="M28" s="7">
         <v>28</v>
@@ -5771,13 +5789,13 @@
         <v>32266</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5792,13 +5810,13 @@
         <v>23989</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>218</v>
+        <v>468</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="H29" s="7">
         <v>17</v>
@@ -5807,13 +5825,13 @@
         <v>19521</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>466</v>
+        <v>395</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="M29" s="7">
         <v>38</v>
@@ -5822,13 +5840,13 @@
         <v>43510</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5843,13 +5861,13 @@
         <v>36663</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>132</v>
+        <v>475</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="H30" s="7">
         <v>24</v>
@@ -5858,13 +5876,13 @@
         <v>27753</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>50</v>
+        <v>479</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="M30" s="7">
         <v>56</v>
@@ -5873,13 +5891,13 @@
         <v>64416</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,13 +5912,13 @@
         <v>32411</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="H31" s="7">
         <v>17</v>
@@ -5909,13 +5927,13 @@
         <v>19787</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>483</v>
+        <v>379</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>312</v>
+        <v>488</v>
       </c>
       <c r="M31" s="7">
         <v>45</v>
@@ -5924,19 +5942,19 @@
         <v>52198</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>280</v>
+        <v>489</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7">
         <v>49</v>
@@ -5945,13 +5963,13 @@
         <v>54942</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="H32" s="7">
         <v>20</v>
@@ -5960,13 +5978,13 @@
         <v>24272</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>274</v>
+        <v>495</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="M32" s="7">
         <v>69</v>
@@ -5975,13 +5993,13 @@
         <v>79215</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5996,13 +6014,13 @@
         <v>165726</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
         <v>90</v>
@@ -6011,13 +6029,13 @@
         <v>105879</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>236</v>
@@ -6026,13 +6044,13 @@
         <v>271605</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6055,7 +6073,7 @@
         <v>241</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>243</v>
+        <v>43</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6070,7 +6088,7 @@
         <v>241</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6085,7 +6103,7 @@
         <v>241</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6106,7 +6124,7 @@
         <v>241</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>243</v>
+        <v>43</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6121,7 +6139,7 @@
         <v>241</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -6136,7 +6154,7 @@
         <v>241</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6151,13 +6169,13 @@
         <v>1050</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>209</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -6166,13 +6184,13 @@
         <v>1183</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>460</v>
+        <v>505</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>209</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -6187,7 +6205,7 @@
         <v>209</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6202,13 +6220,13 @@
         <v>795</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>209</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -6217,13 +6235,13 @@
         <v>1033</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>209</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -6232,19 +6250,19 @@
         <v>1829</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>209</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C38" s="7">
         <v>4</v>
@@ -6253,13 +6271,13 @@
         <v>4140</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>507</v>
+        <v>274</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
@@ -6268,13 +6286,13 @@
         <v>2974</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M38" s="7">
         <v>7</v>
@@ -6283,13 +6301,13 @@
         <v>7114</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6304,13 +6322,13 @@
         <v>5985</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H39" s="7">
         <v>5</v>
@@ -6319,13 +6337,13 @@
         <v>5190</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M39" s="7">
         <v>11</v>
@@ -6334,13 +6352,13 @@
         <v>11176</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6357,13 +6375,13 @@
         <v>181453</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>432</v>
+        <v>521</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="H40" s="7">
         <v>154</v>
@@ -6372,13 +6390,13 @@
         <v>155972</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="M40" s="7">
         <v>319</v>
@@ -6387,13 +6405,13 @@
         <v>337425</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>201</v>
+        <v>525</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6408,13 +6426,13 @@
         <v>224891</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>424</v>
+        <v>386</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>519</v>
+        <v>302</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="H41" s="7">
         <v>187</v>
@@ -6423,13 +6441,13 @@
         <v>188822</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>347</v>
+        <v>531</v>
       </c>
       <c r="M41" s="7">
         <v>396</v>
@@ -6438,13 +6456,13 @@
         <v>413714</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>523</v>
+        <v>442</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6459,13 +6477,13 @@
         <v>363562</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>526</v>
+        <v>493</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>355</v>
+        <v>534</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="H42" s="7">
         <v>263</v>
@@ -6474,13 +6492,13 @@
         <v>264777</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="M42" s="7">
         <v>604</v>
@@ -6489,13 +6507,13 @@
         <v>628339</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>487</v>
+        <v>539</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6510,13 +6528,13 @@
         <v>297358</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="H43" s="7">
         <v>188</v>
@@ -6525,13 +6543,13 @@
         <v>191571</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="M43" s="7">
         <v>464</v>
@@ -6540,19 +6558,19 @@
         <v>488929</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>539</v>
+        <v>157</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>278</v>
+        <v>547</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>540</v>
+        <v>325</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C44" s="7">
         <v>332</v>
@@ -6561,13 +6579,13 @@
         <v>355058</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="H44" s="7">
         <v>221</v>
@@ -6576,13 +6594,13 @@
         <v>236029</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>544</v>
+        <v>284</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="M44" s="7">
         <v>553</v>
@@ -6591,13 +6609,13 @@
         <v>591087</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>439</v>
+        <v>554</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>548</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6612,13 +6630,13 @@
         <v>1422322</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H45" s="7">
         <v>1013</v>
@@ -6627,13 +6645,13 @@
         <v>1037172</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M45" s="7">
         <v>2336</v>
@@ -6642,13 +6660,13 @@
         <v>2459494</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6710-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6710-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F2B2BE1-B89A-4E05-B949-7059B1769E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE1D24C7-427D-490B-97B0-E2930A51A643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{78D57532-2D91-45BA-B8CC-28890ADDBCE5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D9DEF303-63A5-40D3-9FDC-BC85835372C7}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="542">
   <si>
     <t>Población según si puede decidir cuándo hace un descanso en 2012 (Tasa respuesta: 33,7%)</t>
   </si>
@@ -75,1633 +75,1594 @@
     <t>24,52%</t>
   </si>
   <si>
-    <t>14,51%</t>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si puede decidir cuándo hace un descanso en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
   </si>
   <si>
     <t>36,51%</t>
   </si>
   <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
   </si>
   <si>
     <t>19,88%</t>
   </si>
   <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
   </si>
   <si>
     <t>22,76%</t>
   </si>
   <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si puede decidir cuándo hace un descanso en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>63,66%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
     <t>25,48%</t>
   </si>
   <si>
     <t>24,03%</t>
   </si>
   <si>
-    <t>22,32%</t>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
   </si>
 </sst>
 </file>
@@ -2113,7 +2074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F997E2-211D-4B22-BF26-6900C5DD7CC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99245C39-9E16-489C-92BB-55CA660B2C27}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2632,7 +2593,7 @@
         <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2647,13 +2608,13 @@
         <v>97780</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>48</v>
@@ -2662,13 +2623,13 @@
         <v>51529</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>143</v>
@@ -2677,13 +2638,13 @@
         <v>149308</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2698,13 +2659,13 @@
         <v>76249</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
@@ -2713,13 +2674,13 @@
         <v>52965</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="M13" s="7">
         <v>127</v>
@@ -2883,13 +2844,13 @@
         <v>63266</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2904,13 +2865,13 @@
         <v>46404</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>32</v>
@@ -2919,13 +2880,13 @@
         <v>34352</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>73</v>
@@ -2934,13 +2895,13 @@
         <v>80757</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2955,13 +2916,13 @@
         <v>74982</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>57</v>
@@ -2970,13 +2931,13 @@
         <v>58395</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>131</v>
@@ -2985,13 +2946,13 @@
         <v>133378</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3006,13 +2967,13 @@
         <v>106493</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>59</v>
@@ -3021,13 +2982,13 @@
         <v>61573</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>165</v>
@@ -3036,13 +2997,13 @@
         <v>168066</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3057,13 +3018,13 @@
         <v>160561</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>93</v>
@@ -3072,13 +3033,13 @@
         <v>97848</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>246</v>
@@ -3087,13 +3048,13 @@
         <v>258409</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,7 +3110,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3161,13 +3122,13 @@
         <v>33233</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>29</v>
@@ -3176,13 +3137,13 @@
         <v>31999</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>59</v>
@@ -3191,10 +3152,10 @@
         <v>65232</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>158</v>
@@ -3233,7 +3194,7 @@
         <v>163</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>164</v>
+        <v>70</v>
       </c>
       <c r="M23" s="7">
         <v>47</v>
@@ -3242,13 +3203,13 @@
         <v>52991</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3263,13 +3224,13 @@
         <v>71102</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>33</v>
@@ -3278,13 +3239,13 @@
         <v>40224</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M24" s="7">
         <v>93</v>
@@ -3293,13 +3254,13 @@
         <v>111325</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,13 +3275,13 @@
         <v>74075</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>178</v>
-      </c>
       <c r="G25" s="7" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="H25" s="7">
         <v>36</v>
@@ -3329,13 +3290,13 @@
         <v>39638</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>103</v>
@@ -3344,13 +3305,13 @@
         <v>113713</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,13 +3326,13 @@
         <v>158313</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>76</v>
@@ -3380,13 +3341,13 @@
         <v>90297</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>216</v>
@@ -3395,13 +3356,13 @@
         <v>248610</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3457,7 +3418,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3469,13 +3430,13 @@
         <v>11570</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -3484,13 +3445,13 @@
         <v>4135</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M28" s="7">
         <v>15</v>
@@ -3499,13 +3460,13 @@
         <v>15705</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>202</v>
+        <v>113</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3520,13 +3481,13 @@
         <v>4491</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -3535,13 +3496,13 @@
         <v>1971</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -3550,13 +3511,13 @@
         <v>6463</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,13 +3532,13 @@
         <v>31312</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -3586,13 +3547,13 @@
         <v>12561</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M30" s="7">
         <v>39</v>
@@ -3601,13 +3562,13 @@
         <v>43873</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,13 +3583,13 @@
         <v>30241</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H31" s="7">
         <v>12</v>
@@ -3637,13 +3598,13 @@
         <v>13586</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M31" s="7">
         <v>40</v>
@@ -3652,13 +3613,13 @@
         <v>43827</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>64</v>
+        <v>227</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3673,13 +3634,13 @@
         <v>78769</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H32" s="7">
         <v>34</v>
@@ -3688,13 +3649,13 @@
         <v>37438</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M32" s="7">
         <v>110</v>
@@ -3703,13 +3664,13 @@
         <v>116207</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3765,7 +3726,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3777,13 +3738,13 @@
         <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -3792,13 +3753,13 @@
         <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -3807,13 +3768,13 @@
         <v>0</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="P34" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3828,13 +3789,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -3843,13 +3804,13 @@
         <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -3858,13 +3819,13 @@
         <v>0</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="P35" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,13 +3840,13 @@
         <v>0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -3894,13 +3855,13 @@
         <v>891</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -3909,13 +3870,13 @@
         <v>891</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,13 +3891,13 @@
         <v>1000</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -3945,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -3960,13 +3921,13 @@
         <v>1000</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3981,13 +3942,13 @@
         <v>2016</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -3996,13 +3957,13 @@
         <v>1947</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M38" s="7">
         <v>4</v>
@@ -4011,13 +3972,13 @@
         <v>3964</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="P38" s="7" t="s">
-        <v>253</v>
-      </c>
       <c r="Q38" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,13 +4046,13 @@
         <v>138589</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F40" s="7" t="s">
-        <v>255</v>
-      </c>
       <c r="G40" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="H40" s="7">
         <v>114</v>
@@ -4100,13 +4061,13 @@
         <v>122811</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M40" s="7">
         <v>243</v>
@@ -4115,13 +4076,13 @@
         <v>261400</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,13 +4097,13 @@
         <v>112006</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H41" s="7">
         <v>83</v>
@@ -4151,13 +4112,13 @@
         <v>91903</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M41" s="7">
         <v>185</v>
@@ -4166,13 +4127,13 @@
         <v>203909</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,13 +4148,13 @@
         <v>293588</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H42" s="7">
         <v>164</v>
@@ -4202,13 +4163,13 @@
         <v>177225</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>276</v>
+        <v>126</v>
       </c>
       <c r="M42" s="7">
         <v>438</v>
@@ -4220,10 +4181,10 @@
         <v>47</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,13 +4199,13 @@
         <v>302099</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H43" s="7">
         <v>177</v>
@@ -4253,13 +4214,13 @@
         <v>187902</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>284</v>
+        <v>175</v>
       </c>
       <c r="M43" s="7">
         <v>469</v>
@@ -4268,13 +4229,13 @@
         <v>490001</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4289,13 +4250,13 @@
         <v>563409</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="H44" s="7">
         <v>330</v>
@@ -4304,13 +4265,13 @@
         <v>360716</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="M44" s="7">
         <v>858</v>
@@ -4319,13 +4280,13 @@
         <v>924125</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4381,7 +4342,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -4403,7 +4364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08842E54-5220-44C2-9641-C81BB81384B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F959E5-6D4B-4F95-A186-8E9BE56AE2BB}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4420,7 +4381,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4527,13 +4488,13 @@
         <v>13000</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -4542,13 +4503,13 @@
         <v>12816</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>31</v>
+        <v>283</v>
       </c>
       <c r="M4" s="7">
         <v>25</v>
@@ -4557,13 +4518,13 @@
         <v>25816</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>76</v>
+        <v>300</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4578,13 +4539,13 @@
         <v>15526</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -4593,13 +4554,13 @@
         <v>21843</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>182</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="M5" s="7">
         <v>36</v>
@@ -4608,13 +4569,13 @@
         <v>37368</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>312</v>
+        <v>177</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4629,13 +4590,13 @@
         <v>24718</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H6" s="7">
         <v>23</v>
@@ -4644,13 +4605,13 @@
         <v>21866</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M6" s="7">
         <v>45</v>
@@ -4659,13 +4620,13 @@
         <v>46584</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4680,13 +4641,13 @@
         <v>16481</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
@@ -4695,13 +4656,13 @@
         <v>19819</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="M7" s="7">
         <v>36</v>
@@ -4710,13 +4671,13 @@
         <v>36300</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4731,13 +4692,13 @@
         <v>9384</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>47</v>
+        <v>329</v>
       </c>
       <c r="H8" s="7">
         <v>16</v>
@@ -4746,13 +4707,13 @@
         <v>15512</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="M8" s="7">
         <v>25</v>
@@ -4761,13 +4722,13 @@
         <v>24896</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4835,13 +4796,13 @@
         <v>47402</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H10" s="7">
         <v>44</v>
@@ -4850,13 +4811,13 @@
         <v>42406</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>344</v>
+        <v>94</v>
       </c>
       <c r="M10" s="7">
         <v>88</v>
@@ -4865,13 +4826,13 @@
         <v>89808</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4886,13 +4847,13 @@
         <v>70646</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>164</v>
+        <v>344</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H11" s="7">
         <v>57</v>
@@ -4901,13 +4862,13 @@
         <v>54384</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="M11" s="7">
         <v>123</v>
@@ -4916,13 +4877,13 @@
         <v>125030</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4937,13 +4898,13 @@
         <v>80309</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H12" s="7">
         <v>75</v>
@@ -4952,13 +4913,13 @@
         <v>71433</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>301</v>
+        <v>355</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="M12" s="7">
         <v>153</v>
@@ -4967,13 +4928,13 @@
         <v>151742</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4988,13 +4949,13 @@
         <v>69298</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H13" s="7">
         <v>60</v>
@@ -5003,13 +4964,13 @@
         <v>56987</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>90</v>
+        <v>364</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="M13" s="7">
         <v>128</v>
@@ -5018,13 +4979,13 @@
         <v>126285</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5039,13 +5000,13 @@
         <v>76530</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>373</v>
+        <v>222</v>
       </c>
       <c r="H14" s="7">
         <v>47</v>
@@ -5054,13 +5015,13 @@
         <v>48507</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="M14" s="7">
         <v>120</v>
@@ -5069,13 +5030,13 @@
         <v>125037</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>67</v>
+        <v>374</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5143,13 +5104,13 @@
         <v>54357</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="H16" s="7">
         <v>50</v>
@@ -5158,13 +5119,13 @@
         <v>47774</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>259</v>
+        <v>114</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="M16" s="7">
         <v>102</v>
@@ -5173,13 +5134,13 @@
         <v>102131</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5194,13 +5155,13 @@
         <v>65122</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>387</v>
+        <v>218</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H17" s="7">
         <v>58</v>
@@ -5209,13 +5170,13 @@
         <v>56716</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>391</v>
+        <v>123</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="M17" s="7">
         <v>119</v>
@@ -5224,13 +5185,13 @@
         <v>121838</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5245,13 +5206,13 @@
         <v>125572</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>396</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="H18" s="7">
         <v>81</v>
@@ -5260,13 +5221,13 @@
         <v>79202</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="M18" s="7">
         <v>202</v>
@@ -5275,13 +5236,13 @@
         <v>204774</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5296,13 +5257,13 @@
         <v>99727</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>278</v>
+        <v>400</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H19" s="7">
         <v>47</v>
@@ -5311,13 +5272,13 @@
         <v>47403</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>93</v>
+        <v>403</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>223</v>
+        <v>405</v>
       </c>
       <c r="M19" s="7">
         <v>141</v>
@@ -5326,13 +5287,13 @@
         <v>147130</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5347,13 +5308,13 @@
         <v>114810</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="H20" s="7">
         <v>83</v>
@@ -5362,13 +5323,13 @@
         <v>86319</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="M20" s="7">
         <v>192</v>
@@ -5377,13 +5338,13 @@
         <v>201129</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5439,7 +5400,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5451,13 +5412,13 @@
         <v>48973</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>420</v>
+        <v>258</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>421</v>
+        <v>136</v>
       </c>
       <c r="H22" s="7">
         <v>35</v>
@@ -5466,13 +5427,13 @@
         <v>38432</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>386</v>
+        <v>417</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="M22" s="7">
         <v>76</v>
@@ -5481,13 +5442,13 @@
         <v>87405</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>424</v>
+        <v>123</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5502,13 +5463,13 @@
         <v>49609</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="H23" s="7">
         <v>34</v>
@@ -5517,13 +5478,13 @@
         <v>36358</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>429</v>
+        <v>12</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="M23" s="7">
         <v>80</v>
@@ -5532,13 +5493,13 @@
         <v>85967</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>388</v>
+        <v>426</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5553,13 +5514,13 @@
         <v>95249</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>321</v>
+        <v>429</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="H24" s="7">
         <v>59</v>
@@ -5568,13 +5529,13 @@
         <v>63340</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>436</v>
+        <v>281</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="M24" s="7">
         <v>146</v>
@@ -5583,13 +5544,13 @@
         <v>158589</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5604,13 +5565,13 @@
         <v>78645</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>442</v>
+        <v>14</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="H25" s="7">
         <v>43</v>
@@ -5619,13 +5580,13 @@
         <v>46543</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="M25" s="7">
         <v>112</v>
@@ -5634,13 +5595,13 @@
         <v>125188</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5655,13 +5616,13 @@
         <v>95252</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="H26" s="7">
         <v>52</v>
@@ -5670,13 +5631,13 @@
         <v>58446</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
       <c r="M26" s="7">
         <v>140</v>
@@ -5685,13 +5646,13 @@
         <v>153698</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>456</v>
+        <v>135</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5747,7 +5708,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5759,13 +5720,13 @@
         <v>17721</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="H28" s="7">
         <v>12</v>
@@ -5774,13 +5735,13 @@
         <v>14545</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="M28" s="7">
         <v>28</v>
@@ -5789,13 +5750,13 @@
         <v>32266</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>465</v>
+        <v>77</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>466</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5810,13 +5771,13 @@
         <v>23989</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="H29" s="7">
         <v>17</v>
@@ -5825,13 +5786,13 @@
         <v>19521</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>395</v>
+        <v>460</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="M29" s="7">
         <v>38</v>
@@ -5840,13 +5801,13 @@
         <v>43510</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5861,13 +5822,13 @@
         <v>36663</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>477</v>
+        <v>435</v>
       </c>
       <c r="H30" s="7">
         <v>24</v>
@@ -5876,13 +5837,13 @@
         <v>27753</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="M30" s="7">
         <v>56</v>
@@ -5891,13 +5852,13 @@
         <v>64416</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>482</v>
+        <v>391</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5912,13 +5873,13 @@
         <v>32411</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="H31" s="7">
         <v>17</v>
@@ -5927,13 +5888,13 @@
         <v>19787</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>379</v>
+        <v>477</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="M31" s="7">
         <v>45</v>
@@ -5942,13 +5903,13 @@
         <v>52198</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>491</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5963,13 +5924,13 @@
         <v>54942</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>493</v>
+        <v>402</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="H32" s="7">
         <v>20</v>
@@ -5978,13 +5939,13 @@
         <v>24272</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="M32" s="7">
         <v>69</v>
@@ -5993,13 +5954,13 @@
         <v>79215</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>499</v>
+        <v>278</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6055,7 +6016,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6067,13 +6028,13 @@
         <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6082,13 +6043,13 @@
         <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6097,13 +6058,13 @@
         <v>0</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6118,13 +6079,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F35" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6133,13 +6094,13 @@
         <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -6148,13 +6109,13 @@
         <v>0</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6169,13 +6130,13 @@
         <v>1050</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>503</v>
+        <v>367</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -6184,13 +6145,13 @@
         <v>1183</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -6199,13 +6160,13 @@
         <v>2233</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6220,13 +6181,13 @@
         <v>795</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -6235,13 +6196,13 @@
         <v>1033</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -6250,13 +6211,13 @@
         <v>1829</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6271,13 +6232,13 @@
         <v>4140</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>274</v>
+        <v>501</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
@@ -6286,13 +6247,13 @@
         <v>2974</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M38" s="7">
         <v>7</v>
@@ -6301,13 +6262,13 @@
         <v>7114</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6375,13 +6336,13 @@
         <v>181453</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="H40" s="7">
         <v>154</v>
@@ -6393,10 +6354,10 @@
         <v>65</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>523</v>
+        <v>221</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="M40" s="7">
         <v>319</v>
@@ -6405,13 +6366,13 @@
         <v>337425</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>526</v>
+        <v>118</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>527</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6426,13 +6387,13 @@
         <v>224891</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>386</v>
+        <v>417</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>302</v>
+        <v>512</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="H41" s="7">
         <v>187</v>
@@ -6441,13 +6402,13 @@
         <v>188822</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="M41" s="7">
         <v>396</v>
@@ -6456,13 +6417,13 @@
         <v>413714</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>442</v>
+        <v>120</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6477,13 +6438,13 @@
         <v>363562</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>493</v>
+        <v>519</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="H42" s="7">
         <v>263</v>
@@ -6492,13 +6453,13 @@
         <v>264777</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>537</v>
+        <v>175</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="M42" s="7">
         <v>604</v>
@@ -6507,13 +6468,13 @@
         <v>628339</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6528,13 +6489,13 @@
         <v>297358</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="H43" s="7">
         <v>188</v>
@@ -6543,13 +6504,13 @@
         <v>191571</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>545</v>
+        <v>364</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="M43" s="7">
         <v>464</v>
@@ -6558,13 +6519,13 @@
         <v>488929</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>157</v>
+        <v>532</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>325</v>
+        <v>534</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6579,13 +6540,13 @@
         <v>355058</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>548</v>
+        <v>348</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="H44" s="7">
         <v>221</v>
@@ -6594,13 +6555,13 @@
         <v>236029</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>284</v>
+        <v>537</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>551</v>
+        <v>374</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="M44" s="7">
         <v>553</v>
@@ -6609,13 +6570,13 @@
         <v>591087</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>16</v>
+        <v>541</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6671,7 +6632,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6710-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6710-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE1D24C7-427D-490B-97B0-E2930A51A643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B7EBD03-9346-4FAF-B3CA-73E62AC4CB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D9DEF303-63A5-40D3-9FDC-BC85835372C7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4A484007-3861-4143-A026-97E99AC507AD}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="549">
   <si>
     <t>Población según si puede decidir cuándo hace un descanso en 2012 (Tasa respuesta: 33,7%)</t>
   </si>
@@ -75,1594 +75,1615 @@
     <t>24,52%</t>
   </si>
   <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si puede decidir cuándo hace un descanso en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
     <t>14,95%</t>
   </si>
   <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
   </si>
   <si>
     <t>16,82%</t>
   </si>
   <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si puede decidir cuándo hace un descanso en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
   </si>
   <si>
     <t>24,96%</t>
   </si>
   <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>63,66%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
   </si>
   <si>
     <t>22,76%</t>
   </si>
   <si>
-    <t>25,48%</t>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
   </si>
   <si>
     <t>24,03%</t>
   </si>
   <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
+    <t>25,87%</t>
   </si>
 </sst>
 </file>
@@ -2074,7 +2095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99245C39-9E16-489C-92BB-55CA660B2C27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E9DF311-4CE9-4397-863F-76F7A12EC116}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2354,10 +2375,10 @@
         <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
@@ -2366,13 +2387,13 @@
         <v>20140</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>33</v>
@@ -2381,19 +2402,19 @@
         <v>34181</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>21</v>
@@ -2402,13 +2423,13 @@
         <v>21280</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>34</v>
@@ -2417,13 +2438,13 @@
         <v>35084</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>55</v>
@@ -2432,13 +2453,13 @@
         <v>56364</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2453,13 +2474,13 @@
         <v>82851</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
         <v>86</v>
@@ -2468,13 +2489,13 @@
         <v>87801</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>164</v>
@@ -2483,18 +2504,18 @@
         <v>170652</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2506,13 +2527,13 @@
         <v>40868</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>37</v>
@@ -2521,13 +2542,13 @@
         <v>40928</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>76</v>
@@ -2536,13 +2557,13 @@
         <v>81796</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2557,13 +2578,13 @@
         <v>22502</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>26</v>
@@ -2572,13 +2593,13 @@
         <v>28529</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>47</v>
@@ -2587,13 +2608,13 @@
         <v>51031</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2608,13 +2629,13 @@
         <v>97780</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>48</v>
@@ -2623,13 +2644,13 @@
         <v>51529</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>143</v>
@@ -2638,13 +2659,13 @@
         <v>149308</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2659,13 +2680,13 @@
         <v>76249</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
@@ -2674,13 +2695,13 @@
         <v>52965</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>127</v>
@@ -2689,19 +2710,19 @@
         <v>129213</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
         <v>136</v>
@@ -2710,13 +2731,13 @@
         <v>142470</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>91</v>
@@ -2725,13 +2746,13 @@
         <v>98101</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>227</v>
@@ -2740,13 +2761,13 @@
         <v>240571</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2761,13 +2782,13 @@
         <v>379868</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
         <v>253</v>
@@ -2776,13 +2797,13 @@
         <v>272051</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
         <v>620</v>
@@ -2791,18 +2812,18 @@
         <v>651919</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2814,13 +2835,13 @@
         <v>32600</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -2829,13 +2850,13 @@
         <v>30666</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>61</v>
@@ -2844,7 +2865,7 @@
         <v>63266</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>113</v>
@@ -2967,13 +2988,13 @@
         <v>106493</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>59</v>
@@ -2982,13 +3003,13 @@
         <v>61573</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>165</v>
@@ -2997,19 +3018,19 @@
         <v>168066</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
         <v>153</v>
@@ -3018,13 +3039,13 @@
         <v>160561</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>93</v>
@@ -3033,13 +3054,13 @@
         <v>97848</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>246</v>
@@ -3048,13 +3069,13 @@
         <v>258409</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3069,13 +3090,13 @@
         <v>421040</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>270</v>
@@ -3084,13 +3105,13 @@
         <v>282835</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>676</v>
@@ -3099,18 +3120,18 @@
         <v>703875</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3122,13 +3143,13 @@
         <v>33233</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>29</v>
@@ -3137,13 +3158,13 @@
         <v>31999</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>59</v>
@@ -3155,10 +3176,10 @@
         <v>115</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,13 +3194,13 @@
         <v>29809</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>19</v>
@@ -3188,13 +3209,13 @@
         <v>23183</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>70</v>
+        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>47</v>
@@ -3203,13 +3224,13 @@
         <v>52991</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3224,13 +3245,13 @@
         <v>71102</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>33</v>
@@ -3239,13 +3260,13 @@
         <v>40224</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>93</v>
@@ -3254,13 +3275,13 @@
         <v>111325</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3275,13 +3296,13 @@
         <v>74075</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>177</v>
+        <v>88</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>36</v>
@@ -3290,13 +3311,13 @@
         <v>39638</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>103</v>
@@ -3305,19 +3326,19 @@
         <v>113713</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
         <v>140</v>
@@ -3326,13 +3347,13 @@
         <v>158313</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>76</v>
@@ -3341,13 +3362,13 @@
         <v>90297</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>216</v>
@@ -3356,13 +3377,13 @@
         <v>248610</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3377,13 +3398,13 @@
         <v>366532</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>193</v>
@@ -3392,13 +3413,13 @@
         <v>225340</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>518</v>
@@ -3407,18 +3428,18 @@
         <v>591872</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3430,13 +3451,13 @@
         <v>11570</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -3445,13 +3466,13 @@
         <v>4135</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M28" s="7">
         <v>15</v>
@@ -3460,13 +3481,13 @@
         <v>15705</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>113</v>
+        <v>202</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3481,13 +3502,13 @@
         <v>4491</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -3496,13 +3517,13 @@
         <v>1971</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -3511,13 +3532,13 @@
         <v>6463</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3532,13 +3553,13 @@
         <v>31312</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -3547,13 +3568,13 @@
         <v>12561</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M30" s="7">
         <v>39</v>
@@ -3562,13 +3583,13 @@
         <v>43873</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3583,13 +3604,13 @@
         <v>30241</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>222</v>
+        <v>42</v>
       </c>
       <c r="H31" s="7">
         <v>12</v>
@@ -3598,13 +3619,13 @@
         <v>13586</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M31" s="7">
         <v>40</v>
@@ -3613,19 +3634,19 @@
         <v>43827</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C32" s="7">
         <v>76</v>
@@ -3634,13 +3655,13 @@
         <v>78769</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H32" s="7">
         <v>34</v>
@@ -3649,13 +3670,13 @@
         <v>37438</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M32" s="7">
         <v>110</v>
@@ -3664,13 +3685,13 @@
         <v>116207</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3685,13 +3706,13 @@
         <v>156384</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H33" s="7">
         <v>63</v>
@@ -3700,13 +3721,13 @@
         <v>69691</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M33" s="7">
         <v>209</v>
@@ -3715,18 +3736,18 @@
         <v>226075</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3738,13 +3759,13 @@
         <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -3753,13 +3774,13 @@
         <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -3768,13 +3789,13 @@
         <v>0</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3789,13 +3810,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -3804,13 +3825,13 @@
         <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -3819,13 +3840,13 @@
         <v>0</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3840,13 +3861,13 @@
         <v>0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -3855,13 +3876,13 @@
         <v>891</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -3870,13 +3891,13 @@
         <v>891</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,13 +3912,13 @@
         <v>1000</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -3906,13 +3927,13 @@
         <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -3921,19 +3942,19 @@
         <v>1000</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C38" s="7">
         <v>2</v>
@@ -3942,13 +3963,13 @@
         <v>2016</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -3957,13 +3978,13 @@
         <v>1947</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M38" s="7">
         <v>4</v>
@@ -3972,13 +3993,13 @@
         <v>3964</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,13 +4014,13 @@
         <v>3016</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H39" s="7">
         <v>3</v>
@@ -4008,13 +4029,13 @@
         <v>2838</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M39" s="7">
         <v>6</v>
@@ -4023,13 +4044,13 @@
         <v>5854</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,13 +4067,13 @@
         <v>138589</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>161</v>
+        <v>257</v>
       </c>
       <c r="H40" s="7">
         <v>114</v>
@@ -4061,13 +4082,13 @@
         <v>122811</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>62</v>
+        <v>259</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="M40" s="7">
         <v>243</v>
@@ -4076,13 +4097,13 @@
         <v>261400</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,13 +4118,13 @@
         <v>112006</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="H41" s="7">
         <v>83</v>
@@ -4112,13 +4133,13 @@
         <v>91903</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>265</v>
+        <v>181</v>
       </c>
       <c r="M41" s="7">
         <v>185</v>
@@ -4127,13 +4148,13 @@
         <v>203909</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4148,13 +4169,13 @@
         <v>293588</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="H42" s="7">
         <v>164</v>
@@ -4163,13 +4184,13 @@
         <v>177225</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>126</v>
+        <v>277</v>
       </c>
       <c r="M42" s="7">
         <v>438</v>
@@ -4178,13 +4199,13 @@
         <v>470813</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,13 +4220,13 @@
         <v>302099</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>276</v>
+        <v>126</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="H43" s="7">
         <v>177</v>
@@ -4214,13 +4235,13 @@
         <v>187902</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>175</v>
+        <v>284</v>
       </c>
       <c r="M43" s="7">
         <v>469</v>
@@ -4229,19 +4250,19 @@
         <v>490001</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C44" s="7">
         <v>528</v>
@@ -4250,13 +4271,13 @@
         <v>563409</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="H44" s="7">
         <v>330</v>
@@ -4265,13 +4286,13 @@
         <v>360716</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="M44" s="7">
         <v>858</v>
@@ -4280,13 +4301,13 @@
         <v>924125</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4301,13 +4322,13 @@
         <v>1409691</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H45" s="7">
         <v>868</v>
@@ -4316,13 +4337,13 @@
         <v>940556</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M45" s="7">
         <v>2193</v>
@@ -4331,18 +4352,18 @@
         <v>2350247</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -4364,7 +4385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F959E5-6D4B-4F95-A186-8E9BE56AE2BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9789190-1988-4F35-B3E4-87FCE56E2182}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4381,7 +4402,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4488,13 +4509,13 @@
         <v>13000</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -4503,13 +4524,13 @@
         <v>12816</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>283</v>
+        <v>177</v>
       </c>
       <c r="M4" s="7">
         <v>25</v>
@@ -4518,13 +4539,13 @@
         <v>25816</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4539,13 +4560,13 @@
         <v>15526</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>303</v>
+        <v>85</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -4554,13 +4575,13 @@
         <v>21843</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>88</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M5" s="7">
         <v>36</v>
@@ -4569,13 +4590,13 @@
         <v>37368</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>177</v>
+        <v>311</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4590,13 +4611,13 @@
         <v>24718</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H6" s="7">
         <v>23</v>
@@ -4605,13 +4626,13 @@
         <v>21866</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="M6" s="7">
         <v>45</v>
@@ -4620,13 +4641,13 @@
         <v>46584</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4641,13 +4662,13 @@
         <v>16481</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>319</v>
+        <v>201</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
@@ -4656,13 +4677,13 @@
         <v>19819</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M7" s="7">
         <v>36</v>
@@ -4671,19 +4692,19 @@
         <v>36300</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>9</v>
@@ -4692,13 +4713,13 @@
         <v>9384</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H8" s="7">
         <v>16</v>
@@ -4707,13 +4728,13 @@
         <v>15512</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="M8" s="7">
         <v>25</v>
@@ -4722,13 +4743,13 @@
         <v>24896</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4743,13 +4764,13 @@
         <v>79109</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
         <v>93</v>
@@ -4758,13 +4779,13 @@
         <v>91855</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>167</v>
@@ -4773,18 +4794,18 @@
         <v>170964</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4796,13 +4817,13 @@
         <v>47402</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="H10" s="7">
         <v>44</v>
@@ -4811,13 +4832,13 @@
         <v>42406</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>94</v>
+        <v>343</v>
       </c>
       <c r="M10" s="7">
         <v>88</v>
@@ -4826,13 +4847,13 @@
         <v>89808</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4847,13 +4868,13 @@
         <v>70646</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>345</v>
+        <v>49</v>
       </c>
       <c r="H11" s="7">
         <v>57</v>
@@ -4862,13 +4883,13 @@
         <v>54384</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="M11" s="7">
         <v>123</v>
@@ -4877,13 +4898,13 @@
         <v>125030</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4898,13 +4919,13 @@
         <v>80309</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="H12" s="7">
         <v>75</v>
@@ -4913,13 +4934,13 @@
         <v>71433</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="M12" s="7">
         <v>153</v>
@@ -4928,13 +4949,13 @@
         <v>151742</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,13 +4970,13 @@
         <v>69298</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="H13" s="7">
         <v>60</v>
@@ -4964,13 +4985,13 @@
         <v>56987</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="M13" s="7">
         <v>128</v>
@@ -4979,19 +5000,19 @@
         <v>126285</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
         <v>73</v>
@@ -5000,13 +5021,13 @@
         <v>76530</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>369</v>
+        <v>177</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>222</v>
+        <v>373</v>
       </c>
       <c r="H14" s="7">
         <v>47</v>
@@ -5015,13 +5036,13 @@
         <v>48507</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="M14" s="7">
         <v>120</v>
@@ -5030,13 +5051,13 @@
         <v>125037</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5051,13 +5072,13 @@
         <v>344185</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
         <v>283</v>
@@ -5066,13 +5087,13 @@
         <v>273716</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
         <v>612</v>
@@ -5081,18 +5102,18 @@
         <v>617902</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5104,13 +5125,13 @@
         <v>54357</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="H16" s="7">
         <v>50</v>
@@ -5119,13 +5140,13 @@
         <v>47774</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>114</v>
+        <v>383</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="M16" s="7">
         <v>102</v>
@@ -5134,13 +5155,13 @@
         <v>102131</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5155,13 +5176,13 @@
         <v>65122</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>218</v>
+        <v>388</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="H17" s="7">
         <v>58</v>
@@ -5170,13 +5191,13 @@
         <v>56716</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>123</v>
+        <v>392</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="M17" s="7">
         <v>119</v>
@@ -5185,13 +5206,13 @@
         <v>121838</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5206,13 +5227,13 @@
         <v>125572</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>397</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="H18" s="7">
         <v>81</v>
@@ -5221,13 +5242,13 @@
         <v>79202</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="M18" s="7">
         <v>202</v>
@@ -5236,13 +5257,13 @@
         <v>204774</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5257,13 +5278,13 @@
         <v>99727</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="H19" s="7">
         <v>47</v>
@@ -5272,13 +5293,13 @@
         <v>47403</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="M19" s="7">
         <v>141</v>
@@ -5287,19 +5308,19 @@
         <v>147130</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
         <v>109</v>
@@ -5308,13 +5329,13 @@
         <v>114810</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>408</v>
+        <v>222</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="H20" s="7">
         <v>83</v>
@@ -5323,13 +5344,13 @@
         <v>86319</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="M20" s="7">
         <v>192</v>
@@ -5338,13 +5359,13 @@
         <v>201129</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>414</v>
+        <v>185</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5359,13 +5380,13 @@
         <v>459588</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>319</v>
@@ -5374,13 +5395,13 @@
         <v>317414</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>756</v>
@@ -5389,18 +5410,18 @@
         <v>777002</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5412,13 +5433,13 @@
         <v>48973</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>258</v>
+        <v>422</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>136</v>
+        <v>423</v>
       </c>
       <c r="H22" s="7">
         <v>35</v>
@@ -5427,13 +5448,13 @@
         <v>38432</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="M22" s="7">
         <v>76</v>
@@ -5442,13 +5463,13 @@
         <v>87405</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>421</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5463,13 +5484,13 @@
         <v>49609</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>162</v>
+        <v>429</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="H23" s="7">
         <v>34</v>
@@ -5478,13 +5499,13 @@
         <v>36358</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>12</v>
+        <v>431</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>301</v>
+        <v>432</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>424</v>
+        <v>337</v>
       </c>
       <c r="M23" s="7">
         <v>80</v>
@@ -5493,13 +5514,13 @@
         <v>85967</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>425</v>
+        <v>324</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>427</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5514,13 +5535,13 @@
         <v>95249</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>428</v>
+        <v>334</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="H24" s="7">
         <v>59</v>
@@ -5529,13 +5550,13 @@
         <v>63340</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>281</v>
+        <v>369</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="M24" s="7">
         <v>146</v>
@@ -5544,13 +5565,13 @@
         <v>158589</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5565,13 +5586,13 @@
         <v>78645</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>14</v>
+        <v>442</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
       <c r="H25" s="7">
         <v>43</v>
@@ -5580,13 +5601,13 @@
         <v>46543</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>440</v>
+        <v>361</v>
       </c>
       <c r="M25" s="7">
         <v>112</v>
@@ -5595,19 +5616,19 @@
         <v>125188</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>441</v>
+        <v>401</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
         <v>88</v>
@@ -5616,13 +5637,13 @@
         <v>95252</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>428</v>
+        <v>334</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="H26" s="7">
         <v>52</v>
@@ -5631,13 +5652,13 @@
         <v>58446</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="M26" s="7">
         <v>140</v>
@@ -5646,13 +5667,13 @@
         <v>153698</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>135</v>
+        <v>453</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5667,13 +5688,13 @@
         <v>367728</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>223</v>
@@ -5682,13 +5703,13 @@
         <v>243118</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>554</v>
@@ -5697,18 +5718,18 @@
         <v>610846</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5720,13 +5741,13 @@
         <v>17721</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="H28" s="7">
         <v>12</v>
@@ -5735,13 +5756,13 @@
         <v>14545</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="M28" s="7">
         <v>28</v>
@@ -5750,13 +5771,13 @@
         <v>32266</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>77</v>
+        <v>462</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>314</v>
+        <v>463</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5771,13 +5792,13 @@
         <v>23989</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>458</v>
+        <v>218</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="H29" s="7">
         <v>17</v>
@@ -5786,13 +5807,13 @@
         <v>19521</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="M29" s="7">
         <v>38</v>
@@ -5801,13 +5822,13 @@
         <v>43510</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5822,13 +5843,13 @@
         <v>36663</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>466</v>
+        <v>132</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>435</v>
+        <v>473</v>
       </c>
       <c r="H30" s="7">
         <v>24</v>
@@ -5837,13 +5858,13 @@
         <v>27753</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>469</v>
+        <v>50</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="M30" s="7">
         <v>56</v>
@@ -5852,13 +5873,13 @@
         <v>64416</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>391</v>
+        <v>477</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5873,13 +5894,13 @@
         <v>32411</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="H31" s="7">
         <v>17</v>
@@ -5888,13 +5909,13 @@
         <v>19787</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>478</v>
+        <v>312</v>
       </c>
       <c r="M31" s="7">
         <v>45</v>
@@ -5903,19 +5924,19 @@
         <v>52198</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>479</v>
+        <v>280</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>90</v>
+        <v>485</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C32" s="7">
         <v>49</v>
@@ -5924,13 +5945,13 @@
         <v>54942</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>402</v>
+        <v>487</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="H32" s="7">
         <v>20</v>
@@ -5939,13 +5960,13 @@
         <v>24272</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>483</v>
+        <v>274</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="M32" s="7">
         <v>69</v>
@@ -5954,13 +5975,13 @@
         <v>79215</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>278</v>
+        <v>492</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5975,13 +5996,13 @@
         <v>165726</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H33" s="7">
         <v>90</v>
@@ -5990,13 +6011,13 @@
         <v>105879</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M33" s="7">
         <v>236</v>
@@ -6005,18 +6026,18 @@
         <v>271605</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6028,13 +6049,13 @@
         <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6043,13 +6064,13 @@
         <v>0</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6058,13 +6079,13 @@
         <v>0</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6079,13 +6100,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6094,13 +6115,13 @@
         <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -6109,13 +6130,13 @@
         <v>0</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6130,13 +6151,13 @@
         <v>1050</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>367</v>
+        <v>496</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -6145,13 +6166,13 @@
         <v>1183</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>491</v>
+        <v>460</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -6160,13 +6181,13 @@
         <v>2233</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6181,13 +6202,13 @@
         <v>795</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -6196,13 +6217,13 @@
         <v>1033</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -6211,19 +6232,19 @@
         <v>1829</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C38" s="7">
         <v>4</v>
@@ -6232,13 +6253,13 @@
         <v>4140</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
@@ -6247,13 +6268,13 @@
         <v>2974</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M38" s="7">
         <v>7</v>
@@ -6262,13 +6283,13 @@
         <v>7114</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6283,13 +6304,13 @@
         <v>5985</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H39" s="7">
         <v>5</v>
@@ -6298,13 +6319,13 @@
         <v>5190</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M39" s="7">
         <v>11</v>
@@ -6313,13 +6334,13 @@
         <v>11176</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6336,13 +6357,13 @@
         <v>181453</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>508</v>
+        <v>432</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="H40" s="7">
         <v>154</v>
@@ -6351,13 +6372,13 @@
         <v>155972</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>221</v>
+        <v>515</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="M40" s="7">
         <v>319</v>
@@ -6366,13 +6387,13 @@
         <v>337425</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>511</v>
+        <v>201</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>118</v>
+        <v>517</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>168</v>
+        <v>518</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6387,13 +6408,13 @@
         <v>224891</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="H41" s="7">
         <v>187</v>
@@ -6402,13 +6423,13 @@
         <v>188822</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>516</v>
+        <v>347</v>
       </c>
       <c r="M41" s="7">
         <v>396</v>
@@ -6417,13 +6438,13 @@
         <v>413714</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>120</v>
+        <v>523</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6438,13 +6459,13 @@
         <v>363562</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>520</v>
+        <v>355</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H42" s="7">
         <v>263</v>
@@ -6453,13 +6474,13 @@
         <v>264777</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>175</v>
+        <v>529</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="M42" s="7">
         <v>604</v>
@@ -6468,13 +6489,13 @@
         <v>628339</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6489,13 +6510,13 @@
         <v>297358</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="H43" s="7">
         <v>188</v>
@@ -6504,13 +6525,13 @@
         <v>191571</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>364</v>
+        <v>537</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="M43" s="7">
         <v>464</v>
@@ -6519,19 +6540,19 @@
         <v>488929</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>533</v>
+        <v>278</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C44" s="7">
         <v>332</v>
@@ -6540,13 +6561,13 @@
         <v>355058</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>348</v>
+        <v>541</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="H44" s="7">
         <v>221</v>
@@ -6555,13 +6576,13 @@
         <v>236029</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>374</v>
+        <v>545</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="M44" s="7">
         <v>553</v>
@@ -6570,13 +6591,13 @@
         <v>591087</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>540</v>
+        <v>439</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6591,13 +6612,13 @@
         <v>1422322</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H45" s="7">
         <v>1013</v>
@@ -6606,13 +6627,13 @@
         <v>1037172</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M45" s="7">
         <v>2336</v>
@@ -6621,18 +6642,18 @@
         <v>2459494</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6710-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6710-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B7EBD03-9346-4FAF-B3CA-73E62AC4CB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3E1A90B-D642-482E-9834-7BF697BA5062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4A484007-3861-4143-A026-97E99AC507AD}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{295A0EFF-BDC2-47D7-84AD-C350371DE8F8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="550">
   <si>
     <t>Población según si puede decidir cuándo hace un descanso en 2012 (Tasa respuesta: 33,7%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -216,7 +216,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>10,76%</t>
@@ -354,7 +354,7 @@
     <t>40,68%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>7,74%</t>
@@ -492,7 +492,7 @@
     <t>40,63%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>9,07%</t>
@@ -624,7 +624,7 @@
     <t>46,42%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>7,4%</t>
@@ -759,7 +759,7 @@
     <t>57,99%</t>
   </si>
   <si>
-    <t>65 y más</t>
+    <t>65-74</t>
   </si>
   <si>
     <t>0%</t>
@@ -804,6 +804,12 @@
     <t>17,03%</t>
   </si>
   <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
     <t>9,83%</t>
   </si>
   <si>
@@ -1524,25 +1530,16 @@
     <t>30,57%</t>
   </si>
   <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
+    <t>80,05%</t>
   </si>
   <si>
     <t>82,18%</t>
   </si>
   <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
   </si>
   <si>
     <t>19,91%</t>
@@ -1551,16 +1548,16 @@
     <t>65,84%</t>
   </si>
   <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
   </si>
   <si>
     <t>57,3%</t>
@@ -1569,13 +1566,19 @@
     <t>16,5%</t>
   </si>
   <si>
-    <t>63,66%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
   </si>
   <si>
     <t>12,76%</t>
@@ -2095,8 +2098,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E9DF311-4CE9-4397-863F-76F7A12EC116}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23524E32-E1CD-454C-99AA-AD186311765A}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4055,55 +4058,49 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>255</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>129</v>
-      </c>
-      <c r="D40" s="7">
-        <v>138589</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D40" s="7"/>
       <c r="E40" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>256</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H40" s="7">
-        <v>114</v>
-      </c>
-      <c r="I40" s="7">
-        <v>122811</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" s="7"/>
       <c r="J40" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M40" s="7">
-        <v>243</v>
-      </c>
-      <c r="N40" s="7">
-        <v>261400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N40" s="7"/>
       <c r="O40" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,49 +4109,43 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>102</v>
-      </c>
-      <c r="D41" s="7">
-        <v>112006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D41" s="7"/>
       <c r="E41" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="H41" s="7">
-        <v>83</v>
-      </c>
-      <c r="I41" s="7">
-        <v>91903</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>181</v>
+        <v>256</v>
       </c>
       <c r="M41" s="7">
-        <v>185</v>
-      </c>
-      <c r="N41" s="7">
-        <v>203909</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N41" s="7"/>
       <c r="O41" s="7" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,49 +4154,43 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>274</v>
-      </c>
-      <c r="D42" s="7">
-        <v>293588</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D42" s="7"/>
       <c r="E42" s="7" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="H42" s="7">
-        <v>164</v>
-      </c>
-      <c r="I42" s="7">
-        <v>177225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="M42" s="7">
-        <v>438</v>
-      </c>
-      <c r="N42" s="7">
-        <v>470813</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N42" s="7"/>
       <c r="O42" s="7" t="s">
-        <v>46</v>
+        <v>256</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,49 +4199,43 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>292</v>
-      </c>
-      <c r="D43" s="7">
-        <v>302099</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D43" s="7"/>
       <c r="E43" s="7" t="s">
-        <v>126</v>
+        <v>256</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="H43" s="7">
-        <v>177</v>
-      </c>
-      <c r="I43" s="7">
-        <v>187902</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="M43" s="7">
-        <v>469</v>
-      </c>
-      <c r="N43" s="7">
-        <v>490001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N43" s="7"/>
       <c r="O43" s="7" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,49 +4244,43 @@
         <v>48</v>
       </c>
       <c r="C44" s="7">
-        <v>528</v>
-      </c>
-      <c r="D44" s="7">
-        <v>563409</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D44" s="7"/>
       <c r="E44" s="7" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="H44" s="7">
-        <v>330</v>
-      </c>
-      <c r="I44" s="7">
-        <v>360716</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="M44" s="7">
-        <v>858</v>
-      </c>
-      <c r="N44" s="7">
-        <v>924125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N44" s="7"/>
       <c r="O44" s="7" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>296</v>
+        <v>256</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,63 +4289,366 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>0</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="M45" s="7">
+        <v>0</v>
+      </c>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>129</v>
+      </c>
+      <c r="D46" s="7">
+        <v>138589</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H46" s="7">
+        <v>114</v>
+      </c>
+      <c r="I46" s="7">
+        <v>122811</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="M46" s="7">
+        <v>243</v>
+      </c>
+      <c r="N46" s="7">
+        <v>261400</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>102</v>
+      </c>
+      <c r="D47" s="7">
+        <v>112006</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H47" s="7">
+        <v>83</v>
+      </c>
+      <c r="I47" s="7">
+        <v>91903</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="M47" s="7">
+        <v>185</v>
+      </c>
+      <c r="N47" s="7">
+        <v>203909</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>274</v>
+      </c>
+      <c r="D48" s="7">
+        <v>293588</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H48" s="7">
+        <v>164</v>
+      </c>
+      <c r="I48" s="7">
+        <v>177225</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="M48" s="7">
+        <v>438</v>
+      </c>
+      <c r="N48" s="7">
+        <v>470813</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>292</v>
+      </c>
+      <c r="D49" s="7">
+        <v>302099</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H49" s="7">
+        <v>177</v>
+      </c>
+      <c r="I49" s="7">
+        <v>187902</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="M49" s="7">
+        <v>469</v>
+      </c>
+      <c r="N49" s="7">
+        <v>490001</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="7">
+        <v>528</v>
+      </c>
+      <c r="D50" s="7">
+        <v>563409</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H50" s="7">
+        <v>330</v>
+      </c>
+      <c r="I50" s="7">
+        <v>360716</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="M50" s="7">
+        <v>858</v>
+      </c>
+      <c r="N50" s="7">
+        <v>924125</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>1325</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D51" s="7">
         <v>1409691</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="E51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H51" s="7">
         <v>868</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>940556</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M51" s="7">
         <v>2193</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>2350247</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>297</v>
+      <c r="O51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4385,8 +4661,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9789190-1988-4F35-B3E4-87FCE56E2182}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836E48F6-8736-4CCE-8283-C5EB6E92CB4F}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4402,7 +4678,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4509,13 +4785,13 @@
         <v>13000</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -4524,10 +4800,10 @@
         <v>12816</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>177</v>
@@ -4539,13 +4815,13 @@
         <v>25816</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4563,10 +4839,10 @@
         <v>85</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -4575,13 +4851,13 @@
         <v>21843</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>88</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M5" s="7">
         <v>36</v>
@@ -4590,13 +4866,13 @@
         <v>37368</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4611,13 +4887,13 @@
         <v>24718</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H6" s="7">
         <v>23</v>
@@ -4626,13 +4902,13 @@
         <v>21866</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M6" s="7">
         <v>45</v>
@@ -4641,13 +4917,13 @@
         <v>46584</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4662,13 +4938,13 @@
         <v>16481</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>201</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H7" s="7">
         <v>20</v>
@@ -4677,13 +4953,13 @@
         <v>19819</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M7" s="7">
         <v>36</v>
@@ -4692,13 +4968,13 @@
         <v>36300</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4713,13 +4989,13 @@
         <v>9384</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H8" s="7">
         <v>16</v>
@@ -4728,13 +5004,13 @@
         <v>15512</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M8" s="7">
         <v>25</v>
@@ -4743,13 +5019,13 @@
         <v>24896</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4817,13 +5093,13 @@
         <v>47402</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H10" s="7">
         <v>44</v>
@@ -4832,13 +5108,13 @@
         <v>42406</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M10" s="7">
         <v>88</v>
@@ -4847,13 +5123,13 @@
         <v>89808</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4868,10 +5144,10 @@
         <v>70646</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>49</v>
@@ -4883,13 +5159,13 @@
         <v>54384</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M11" s="7">
         <v>123</v>
@@ -4898,13 +5174,13 @@
         <v>125030</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4919,13 +5195,13 @@
         <v>80309</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H12" s="7">
         <v>75</v>
@@ -4934,13 +5210,13 @@
         <v>71433</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M12" s="7">
         <v>153</v>
@@ -4949,13 +5225,13 @@
         <v>151742</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4970,13 +5246,13 @@
         <v>69298</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H13" s="7">
         <v>60</v>
@@ -4985,13 +5261,13 @@
         <v>56987</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M13" s="7">
         <v>128</v>
@@ -5000,13 +5276,13 @@
         <v>126285</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5024,10 +5300,10 @@
         <v>177</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H14" s="7">
         <v>47</v>
@@ -5036,13 +5312,13 @@
         <v>48507</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M14" s="7">
         <v>120</v>
@@ -5051,13 +5327,13 @@
         <v>125037</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5125,13 +5401,13 @@
         <v>54357</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="H16" s="7">
         <v>50</v>
@@ -5140,13 +5416,13 @@
         <v>47774</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M16" s="7">
         <v>102</v>
@@ -5155,13 +5431,13 @@
         <v>102131</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5176,13 +5452,13 @@
         <v>65122</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H17" s="7">
         <v>58</v>
@@ -5191,13 +5467,13 @@
         <v>56716</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="M17" s="7">
         <v>119</v>
@@ -5206,13 +5482,13 @@
         <v>121838</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5227,13 +5503,13 @@
         <v>125572</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="H18" s="7">
         <v>81</v>
@@ -5242,13 +5518,13 @@
         <v>79202</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="M18" s="7">
         <v>202</v>
@@ -5257,13 +5533,13 @@
         <v>204774</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5278,13 +5554,13 @@
         <v>99727</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="H19" s="7">
         <v>47</v>
@@ -5293,13 +5569,13 @@
         <v>47403</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M19" s="7">
         <v>141</v>
@@ -5311,10 +5587,10 @@
         <v>81</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5332,10 +5608,10 @@
         <v>222</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="H20" s="7">
         <v>83</v>
@@ -5344,28 +5620,28 @@
         <v>86319</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M20" s="7">
         <v>192</v>
       </c>
       <c r="N20" s="7">
-        <v>201129</v>
+        <v>201128</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>185</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5407,7 +5683,7 @@
         <v>756</v>
       </c>
       <c r="N21" s="7">
-        <v>777002</v>
+        <v>777001</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>58</v>
@@ -5433,13 +5709,13 @@
         <v>48973</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="H22" s="7">
         <v>35</v>
@@ -5448,13 +5724,13 @@
         <v>38432</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="M22" s="7">
         <v>76</v>
@@ -5466,7 +5742,7 @@
         <v>62</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>180</v>
@@ -5484,13 +5760,13 @@
         <v>49609</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="H23" s="7">
         <v>34</v>
@@ -5499,13 +5775,13 @@
         <v>36358</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="M23" s="7">
         <v>80</v>
@@ -5514,10 +5790,10 @@
         <v>85967</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>137</v>
@@ -5535,13 +5811,13 @@
         <v>95249</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="H24" s="7">
         <v>59</v>
@@ -5550,13 +5826,13 @@
         <v>63340</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M24" s="7">
         <v>146</v>
@@ -5565,13 +5841,13 @@
         <v>158589</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5586,13 +5862,13 @@
         <v>78645</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H25" s="7">
         <v>43</v>
@@ -5601,13 +5877,13 @@
         <v>46543</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M25" s="7">
         <v>112</v>
@@ -5616,13 +5892,13 @@
         <v>125188</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5637,13 +5913,13 @@
         <v>95252</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="H26" s="7">
         <v>52</v>
@@ -5652,13 +5928,13 @@
         <v>58446</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="M26" s="7">
         <v>140</v>
@@ -5667,13 +5943,13 @@
         <v>153698</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5741,13 +6017,13 @@
         <v>17721</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="H28" s="7">
         <v>12</v>
@@ -5756,13 +6032,13 @@
         <v>14545</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="M28" s="7">
         <v>28</v>
@@ -5771,13 +6047,13 @@
         <v>32266</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5792,13 +6068,13 @@
         <v>23989</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>218</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="H29" s="7">
         <v>17</v>
@@ -5807,13 +6083,13 @@
         <v>19521</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="M29" s="7">
         <v>38</v>
@@ -5822,13 +6098,13 @@
         <v>43510</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5846,10 +6122,10 @@
         <v>132</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="H30" s="7">
         <v>24</v>
@@ -5858,13 +6134,13 @@
         <v>27753</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="M30" s="7">
         <v>56</v>
@@ -5873,13 +6149,13 @@
         <v>64416</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,13 +6170,13 @@
         <v>32411</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="H31" s="7">
         <v>17</v>
@@ -5909,13 +6185,13 @@
         <v>19787</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M31" s="7">
         <v>45</v>
@@ -5924,13 +6200,13 @@
         <v>52198</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5945,13 +6221,13 @@
         <v>54942</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H32" s="7">
         <v>20</v>
@@ -5960,13 +6236,13 @@
         <v>24272</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="M32" s="7">
         <v>69</v>
@@ -5975,13 +6251,13 @@
         <v>79215</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6055,7 +6331,7 @@
         <v>241</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>243</v>
+        <v>496</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6070,7 +6346,7 @@
         <v>241</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6085,7 +6361,7 @@
         <v>241</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>495</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6106,7 +6382,7 @@
         <v>241</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>243</v>
+        <v>496</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6121,7 +6397,7 @@
         <v>241</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -6136,7 +6412,7 @@
         <v>241</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>495</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6151,7 +6427,7 @@
         <v>1050</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>496</v>
+        <v>379</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>209</v>
@@ -6166,7 +6442,7 @@
         <v>1183</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>209</v>
@@ -6181,13 +6457,13 @@
         <v>2233</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>282</v>
+        <v>499</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>209</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,19 +6472,19 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" s="7">
-        <v>795</v>
+        <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>500</v>
+        <v>209</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -6217,28 +6493,28 @@
         <v>1033</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>209</v>
       </c>
       <c r="L37" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="M37" s="7">
+        <v>1</v>
+      </c>
+      <c r="N37" s="7">
+        <v>1034</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="M37" s="7">
-        <v>2</v>
-      </c>
-      <c r="N37" s="7">
-        <v>1829</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>504</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>209</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6253,10 +6529,10 @@
         <v>4140</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>507</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>245</v>
@@ -6268,10 +6544,10 @@
         <v>2974</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>509</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>245</v>
@@ -6283,13 +6559,13 @@
         <v>7114</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>511</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6298,10 +6574,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39" s="7">
-        <v>5985</v>
+        <v>5190</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>58</v>
@@ -6328,10 +6604,10 @@
         <v>58</v>
       </c>
       <c r="M39" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N39" s="7">
-        <v>11176</v>
+        <v>10381</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>58</v>
@@ -6345,55 +6621,53 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>255</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="D40" s="7">
-        <v>181453</v>
+        <v>0</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>513</v>
+        <v>209</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>432</v>
+        <v>241</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H40" s="7">
-        <v>154</v>
-      </c>
-      <c r="I40" s="7">
-        <v>155972</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" s="7"/>
       <c r="J40" s="7" t="s">
-        <v>63</v>
+        <v>256</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>515</v>
+        <v>256</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>516</v>
+        <v>256</v>
       </c>
       <c r="M40" s="7">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="N40" s="7">
-        <v>337425</v>
+        <v>0</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>517</v>
+        <v>241</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6402,49 +6676,47 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
+        <v>0</v>
+      </c>
+      <c r="D41" s="7">
+        <v>0</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D41" s="7">
-        <v>224891</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>424</v>
-      </c>
       <c r="F41" s="7" t="s">
-        <v>519</v>
+        <v>241</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="H41" s="7">
-        <v>187</v>
-      </c>
-      <c r="I41" s="7">
-        <v>188822</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>521</v>
+        <v>256</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>522</v>
+        <v>256</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>347</v>
+        <v>256</v>
       </c>
       <c r="M41" s="7">
-        <v>396</v>
+        <v>0</v>
       </c>
       <c r="N41" s="7">
-        <v>413714</v>
+        <v>0</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>523</v>
+        <v>209</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>524</v>
+        <v>241</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6453,49 +6725,47 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>341</v>
+        <v>0</v>
       </c>
       <c r="D42" s="7">
-        <v>363562</v>
+        <v>0</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>526</v>
+        <v>209</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>355</v>
+        <v>241</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="H42" s="7">
-        <v>263</v>
-      </c>
-      <c r="I42" s="7">
-        <v>264777</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
-        <v>528</v>
+        <v>256</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>529</v>
+        <v>256</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>530</v>
+        <v>256</v>
       </c>
       <c r="M42" s="7">
-        <v>604</v>
+        <v>0</v>
       </c>
       <c r="N42" s="7">
-        <v>628339</v>
+        <v>0</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>487</v>
+        <v>209</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>531</v>
+        <v>241</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6504,49 +6774,47 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>276</v>
+        <v>1</v>
       </c>
       <c r="D43" s="7">
-        <v>297358</v>
+        <v>795</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>533</v>
+        <v>245</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>534</v>
+        <v>513</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>535</v>
+        <v>58</v>
       </c>
       <c r="H43" s="7">
-        <v>188</v>
-      </c>
-      <c r="I43" s="7">
-        <v>191571</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
-        <v>536</v>
+        <v>256</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>537</v>
+        <v>256</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>538</v>
+        <v>256</v>
       </c>
       <c r="M43" s="7">
-        <v>464</v>
+        <v>1</v>
       </c>
       <c r="N43" s="7">
-        <v>488929</v>
+        <v>795</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>539</v>
+        <v>245</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>278</v>
+        <v>513</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>540</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6555,49 +6823,47 @@
         <v>48</v>
       </c>
       <c r="C44" s="7">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="D44" s="7">
-        <v>355058</v>
+        <v>0</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>541</v>
+        <v>209</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>542</v>
+        <v>241</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>543</v>
+        <v>512</v>
       </c>
       <c r="H44" s="7">
-        <v>221</v>
-      </c>
-      <c r="I44" s="7">
-        <v>236029</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
-        <v>544</v>
+        <v>256</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>545</v>
+        <v>256</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>546</v>
+        <v>256</v>
       </c>
       <c r="M44" s="7">
-        <v>553</v>
+        <v>0</v>
       </c>
       <c r="N44" s="7">
-        <v>591087</v>
+        <v>0</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>547</v>
+        <v>209</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>439</v>
+        <v>241</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>548</v>
+        <v>512</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6606,63 +6872,370 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>1</v>
+      </c>
+      <c r="D45" s="7">
+        <v>795</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="M45" s="7">
+        <v>1</v>
+      </c>
+      <c r="N45" s="7">
+        <v>795</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>165</v>
+      </c>
+      <c r="D46" s="7">
+        <v>181453</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="H46" s="7">
+        <v>154</v>
+      </c>
+      <c r="I46" s="7">
+        <v>155972</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="M46" s="7">
+        <v>319</v>
+      </c>
+      <c r="N46" s="7">
+        <v>337425</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>209</v>
+      </c>
+      <c r="D47" s="7">
+        <v>224891</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="H47" s="7">
+        <v>187</v>
+      </c>
+      <c r="I47" s="7">
+        <v>188822</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="M47" s="7">
+        <v>396</v>
+      </c>
+      <c r="N47" s="7">
+        <v>413714</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>341</v>
+      </c>
+      <c r="D48" s="7">
+        <v>363562</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="H48" s="7">
+        <v>263</v>
+      </c>
+      <c r="I48" s="7">
+        <v>264777</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="M48" s="7">
+        <v>604</v>
+      </c>
+      <c r="N48" s="7">
+        <v>628339</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>276</v>
+      </c>
+      <c r="D49" s="7">
+        <v>297358</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="H49" s="7">
+        <v>188</v>
+      </c>
+      <c r="I49" s="7">
+        <v>191571</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="M49" s="7">
+        <v>464</v>
+      </c>
+      <c r="N49" s="7">
+        <v>488929</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="7">
+        <v>332</v>
+      </c>
+      <c r="D50" s="7">
+        <v>355058</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="H50" s="7">
+        <v>221</v>
+      </c>
+      <c r="I50" s="7">
+        <v>236029</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="M50" s="7">
+        <v>553</v>
+      </c>
+      <c r="N50" s="7">
+        <v>591087</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>1323</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D51" s="7">
         <v>1422322</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="E51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H51" s="7">
         <v>1013</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>1037172</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M51" s="7">
         <v>2336</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>2459494</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>297</v>
+      <c r="O51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
